--- a/学习笔记/总结/阅读清单.xlsx
+++ b/学习笔记/总结/阅读清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>写博客，参与开源产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>Kenneth L Calvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netty in Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norman Maurer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,6 +522,23 @@
       <c r="D4" s="5">
         <v>41699</v>
       </c>
+      <c r="E4" s="5">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41699</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
